--- a/routings/requirement.xlsx
+++ b/routings/requirement.xlsx
@@ -882,7 +882,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
